--- a/COMANDOS SQL(Recuperado automáticamente)(Recuperado automáticamente).xlsx
+++ b/COMANDOS SQL(Recuperado automáticamente)(Recuperado automáticamente).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxelCB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX\Doc\USAC\U\REPOSITORIOS GITHUB\SimplqQL_XD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C3CA7-B12D-4004-83E1-AD014E82C59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C1720-A5DD-4958-B16C-9E8A6FCC9F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="28800" windowHeight="12135" activeTab="4" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
+    <workbookView xWindow="19944" yWindow="7752" windowWidth="17280" windowHeight="9072" activeTab="4" xr2:uid="{AE78FFA2-7F87-4873-BAF0-E744CE7C34DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -934,23 +934,23 @@
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
@@ -982,7 +982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1008,18 +1008,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1027,18 +1027,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1046,12 +1046,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1059,30 +1059,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1090,12 +1090,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1111,12 +1111,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>29</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1135,34 +1135,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1170,25 +1170,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1212,17 +1212,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1230,13 +1230,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1260,42 +1260,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1303,42 +1303,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H60" t="s">
         <v>47</v>
       </c>
@@ -1357,20 +1357,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -1433,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L14" s="6"/>
     </row>
   </sheetData>
@@ -1543,24 +1543,24 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="C1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="C3" s="9" t="s">
         <v>60</v>
@@ -1569,19 +1569,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="C4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="C6" s="10" t="s">
         <v>60</v>
@@ -1590,91 +1590,91 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="C8" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="C11" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="C12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="C13" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="C14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="C16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="C17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="C20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="C21" t="s">
         <v>64</v>
@@ -1686,25 +1686,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="E22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="C24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>64</v>
       </c>
@@ -1715,17 +1715,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>71</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>72</v>
       </c>
@@ -1752,13 +1752,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2093,16 +2093,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AC798-63E4-474F-8852-32BB304A9038}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
